--- a/data/case1/20/cost_13.xlsx
+++ b/data/case1/20/cost_13.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>149.06975143696812</v>
+        <v>149.08421262444526</v>
       </c>
       <c r="B1" s="0">
-        <v>2.965442177281119</v>
+        <v>4.1601282288885599</v>
       </c>
       <c r="C1" s="0">
-        <v>4.0115786040443577</v>
+        <v>1.8754076973255058</v>
       </c>
     </row>
   </sheetData>
